--- a/biology/Zoologie/Ambulyx_placida/Ambulyx_placida.xlsx
+++ b/biology/Zoologie/Ambulyx_placida/Ambulyx_placida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ambulyx placida est une espèce de lépidoptères de la famille des Sphingidae, sous-famille des Smerinthinae, tribu des Ambulycini, et du genre Ambulyx.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure est de 104-114 mm.
 L'espèce est semblable à Ambulyx semiplacida, mais se distingue par un point sous-basal beaucoup plus petit sur la partie supérieure antérieure.
@@ -543,7 +557,9 @@
           <t>Distribution  et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Distribution
 L'espèce est connue dans les contreforts himalayens du nord de l'Inde, au Népal et au Tibet.</t>
@@ -574,7 +590,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chenilles se nourrissent sur Canarium album en Chine. On les trouve également sur les espèces des genres Buchanania et Lannea.
 </t>
@@ -605,12 +623,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Ambulyx placida a été décrite par l'entomologiste britannique Frederic Moore en 1888[1].
-La localité type est le Nord-est de l'India, Himachal Pradesh, Solan.
-Synonymie
-Oxyambulyx citrona Joicey &amp; Kaye, 1917
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce Ambulyx placida a été décrite par l'entomologiste britannique Frederic Moore en 1888.
+La localité type est le Nord-est de l'India, Himachal Pradesh, Solan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ambulyx_placida</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ambulyx_placida</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Oxyambulyx citrona Joicey &amp; Kaye, 1917
 Ambulyx placida nepalplacida Inoue, 1992</t>
         </is>
       </c>
